--- a/Nevasa/InformeCompleto/20250819/20250819_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250819/20250819_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,30 +702,30 @@
         <v>45888</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E7" t="n">
-        <v>605998429.6800001</v>
+        <v>175023917</v>
       </c>
       <c r="F7" t="n">
-        <v>605398592</v>
+        <v>175000000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>COLBUN</t>
+          <t>PACTO_20082025_19082025_0.41_AHORRO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SIMULTANEA</t>
+          <t>PACTO</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>74489025</v>
+        <v>605998429.6800001</v>
       </c>
       <c r="F8" t="n">
-        <v>74422335</v>
+        <v>605398592</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>COLBUN</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -785,17 +785,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>114598500</v>
+        <v>74489025</v>
       </c>
       <c r="F9" t="n">
-        <v>114495900</v>
+        <v>74422335</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SQM-B</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -825,17 +825,17 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22074250.758</v>
+        <v>114598500</v>
       </c>
       <c r="F10" t="n">
-        <v>22054039</v>
+        <v>114495900</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>SQM-B</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -865,17 +865,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34897500</v>
+        <v>22074250.758</v>
       </c>
       <c r="F11" t="n">
-        <v>34863500</v>
+        <v>22054039</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -905,27 +905,227 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>34897500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34863500</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>57673210.542</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>57583322</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>SMSAAM</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>VENTA</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>SIMULTANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="E14" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>59992164</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BNPDBC200825</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17014.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>244</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4151562</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16482.07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>668</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11010023</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CFINHRFLB</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1237.98</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37373</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46267027</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CFINVRFLI</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
         </is>
       </c>
     </row>
